--- a/狼人杀优化记录.xlsx
+++ b/狼人杀优化记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>配置游戏语音，配置游戏流程数据。【功能OK，部分配音还需录制】</t>
   </si>
@@ -130,6 +130,78 @@
   </si>
   <si>
     <t>3、重连后，取消玩家的“离线”标记，且加入中途的战局，需要同步到最新的场上战斗状态。</t>
+  </si>
+  <si>
+    <t>断线重连需同步的状态</t>
+  </si>
+  <si>
+    <t>公共信息</t>
+  </si>
+  <si>
+    <t>1.当前轮次、当前环节、</t>
+  </si>
+  <si>
+    <t>2.几号位发言</t>
+  </si>
+  <si>
+    <t>3.场上死亡信息、离线信息、翻牌信息</t>
+  </si>
+  <si>
+    <t>4.警徽信息</t>
+  </si>
+  <si>
+    <t>单独信息</t>
+  </si>
+  <si>
+    <t>1.预言家</t>
+  </si>
+  <si>
+    <t>验人信息</t>
+  </si>
+  <si>
+    <t>2.女巫</t>
+  </si>
+  <si>
+    <t>3.猎人</t>
+  </si>
+  <si>
+    <t>4.白痴</t>
+  </si>
+  <si>
+    <t>5.平民</t>
+  </si>
+  <si>
+    <t>6.狼人</t>
+  </si>
+  <si>
+    <t>队友信息</t>
+  </si>
+  <si>
+    <t>7.白狼</t>
+  </si>
+  <si>
+    <t>8.守卫</t>
+  </si>
+  <si>
+    <t>当前轮次守人标记</t>
+  </si>
+  <si>
+    <t>9.丘比特</t>
+  </si>
+  <si>
+    <t>情侣信息</t>
+  </si>
+  <si>
+    <t>【有丘比特的局，情侣也许通知到情侣信息】</t>
+  </si>
+  <si>
+    <t>10.盗贼</t>
+  </si>
+  <si>
+    <t>11.混血儿</t>
+  </si>
+  <si>
+    <t>跟随的主人标记</t>
   </si>
   <si>
     <t>玩家注册登录系统，2月底或3月初上线必不可少的系统，且后续等级系统、个人战绩界面需要用到该系统。</t>
@@ -242,10 +314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -283,16 +355,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,8 +452,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,81 +483,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,14 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -417,21 +498,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -448,49 +520,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,43 +670,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,85 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,6 +711,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,6 +743,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,39 +801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -715,177 +811,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -963,13 +1035,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>36830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -987,7 +1059,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="11029950"/>
+          <a:off x="685800" y="15640050"/>
           <a:ext cx="3209925" cy="6113780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1005,13 +1077,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1029,7 +1101,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="20697825"/>
+          <a:off x="714375" y="25307925"/>
           <a:ext cx="542925" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1047,13 +1119,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>94615</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1071,7 +1143,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="22250400"/>
+          <a:off x="685800" y="26860500"/>
           <a:ext cx="3523615" cy="5876290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1089,13 +1161,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180340</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1113,7 +1185,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="6648450"/>
+          <a:off x="685800" y="11258550"/>
           <a:ext cx="3609340" cy="3923665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1418,7 +1490,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -1666,7 +1738,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1677,10 +1748,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC106"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1733,240 +1804,351 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+    <row r="13" s="2" customFormat="1" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="15" s="2" customFormat="1" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:1">
-      <c r="A23" s="2" t="s">
+    <row r="18" s="2" customFormat="1" spans="2:2">
+      <c r="B18" s="2" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="2:3">
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="2:2">
       <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="2:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="2:3">
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="2:3">
       <c r="B28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="2:2">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="2:3">
       <c r="B29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A52" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" s="2" customFormat="1" spans="9:9">
-      <c r="I54" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" s="2" customFormat="1" spans="10:10">
-      <c r="J55" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="10:10">
-      <c r="J56" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="11:29">
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-      <c r="AA57" s="6"/>
-      <c r="AB57" s="6"/>
-      <c r="AC57" s="6"/>
-    </row>
-    <row r="58" s="2" customFormat="1" spans="2:10">
-      <c r="B58" s="4"/>
-      <c r="J58" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" s="2" customFormat="1" spans="2:10">
-      <c r="B59" s="4"/>
-      <c r="J59" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="10:10">
-      <c r="J60" s="2" t="s">
+    <row r="30" s="2" customFormat="1" spans="2:4">
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" s="2" customFormat="1" spans="10:10">
-      <c r="J61" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" s="2" customFormat="1" spans="10:10">
-      <c r="J62" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="10:10">
-      <c r="J63" s="2" t="s">
+    <row r="31" s="2" customFormat="1" spans="2:2">
+      <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" spans="2:2">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="78" s="2" customFormat="1" spans="11:29">
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
-      <c r="AA78" s="6"/>
-      <c r="AB78" s="6"/>
-      <c r="AC78" s="6"/>
-    </row>
-    <row r="79" s="2" customFormat="1" spans="2:2">
-      <c r="B79" s="4"/>
-    </row>
-    <row r="84" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A84" s="3" t="s">
+    <row r="32" s="2" customFormat="1" spans="2:3">
+      <c r="B32" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A89" s="3" t="s">
+    <row r="35" s="1" customFormat="1" ht="15" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="2" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="2" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="2" t="s">
+    <row r="43" s="1" customFormat="1" ht="15" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="2" t="s">
+    <row r="45" s="2" customFormat="1" spans="1:1">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A95" s="3" t="s">
+    <row r="46" s="2" customFormat="1" spans="2:2">
+      <c r="B46" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="2" t="s">
+    <row r="47" s="2" customFormat="1" spans="2:2">
+      <c r="B47" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="2" t="s">
+    <row r="48" s="2" customFormat="1" spans="2:2">
+      <c r="B48" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="2" t="s">
+    <row r="49" s="2" customFormat="1" spans="1:1">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1"/>
-    <row r="104" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A104" s="3" t="s">
+    <row r="50" s="2" customFormat="1" spans="2:2">
+      <c r="B50" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="2" t="s">
+    <row r="51" s="2" customFormat="1" spans="2:2">
+      <c r="B51" s="2" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="15" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="9:9">
+      <c r="I76" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="10:10">
+      <c r="J77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="10:10">
+      <c r="J78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="11:29">
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="2:10">
+      <c r="B80" s="4"/>
+      <c r="J80" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" spans="2:10">
+      <c r="B81" s="4"/>
+      <c r="J81" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="10:10">
+      <c r="J82" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="1" spans="10:10">
+      <c r="J83" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="10:10">
+      <c r="J84" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="10:10">
+      <c r="J85" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="2:2">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="100" s="2" customFormat="1" spans="11:29">
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
+    </row>
+    <row r="101" s="2" customFormat="1" spans="2:2">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="15" spans="1:1">
+      <c r="A106" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="15" spans="1:1">
+      <c r="A111" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="15" spans="1:1">
+      <c r="A117" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" ht="15" customHeight="1"/>
+    <row r="126" s="1" customFormat="1" ht="15" spans="1:1">
+      <c r="A126" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/狼人杀优化记录.xlsx
+++ b/狼人杀优化记录.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="优化记录" sheetId="2" r:id="rId1"/>
     <sheet name="汇总【2月份任务】详细" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="3月份汇总" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>配置游戏语音，配置游戏流程数据。【功能OK，部分配音还需录制】</t>
   </si>
@@ -307,6 +307,63 @@
   </si>
   <si>
     <t>皮肤显示当前正在使用的皮肤，依次统计出：预言家、女巫、猎人、白痴、守卫、平民、狼、白狼、盗贼、混血儿的胜率。</t>
+  </si>
+  <si>
+    <t>玩家名称</t>
+  </si>
+  <si>
+    <t>段位</t>
+  </si>
+  <si>
+    <t>胜率</t>
+  </si>
+  <si>
+    <t>月卡</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>魅力</t>
+  </si>
+  <si>
+    <t>送花送礼物产生，留好接口</t>
+  </si>
+  <si>
+    <t>神装</t>
+  </si>
+  <si>
+    <t>最高级的时装数量，留好接口</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>信用</t>
+  </si>
+  <si>
+    <t>初始100，掉线1场减10分，每成功完成一场比较加1分，若分数低于60分，进入房间需要消耗10钻石。若分数低于30，进入房间需要消耗100钻石。</t>
+  </si>
+  <si>
+    <t>战力</t>
+  </si>
+  <si>
+    <t>具体怎么算，后续给出方案。</t>
+  </si>
+  <si>
+    <t>各个角色的胜场负场</t>
+  </si>
+  <si>
+    <t>1.排麦</t>
+  </si>
+  <si>
+    <t>2.房间外面状态</t>
+  </si>
+  <si>
+    <t>3.配音</t>
+  </si>
+  <si>
+    <t>1.死了的人可以退出房间，重新开始进其他房间。</t>
   </si>
 </sst>
 </file>
@@ -314,10 +371,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -352,6 +409,20 @@
       <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -369,13 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -385,7 +449,106 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,112 +561,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -520,187 +577,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,24 +768,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -762,6 +801,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -773,15 +821,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,6 +842,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -816,148 +873,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1748,10 +1805,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2151,6 +2208,93 @@
         <v>96</v>
       </c>
     </row>
+    <row r="131" spans="10:10">
+      <c r="J131" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10">
+      <c r="J132" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10">
+      <c r="J133" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10">
+      <c r="J134" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10">
+      <c r="J135" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="10:11">
+      <c r="J136" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="10:11">
+      <c r="J137" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10">
+      <c r="J138" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10">
+      <c r="J139" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="10:11">
+      <c r="J140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="10:11">
+      <c r="J141" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10">
+      <c r="J145" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2161,14 +2305,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/狼人杀优化记录.xlsx
+++ b/狼人杀优化记录.xlsx
@@ -371,10 +371,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -411,13 +411,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -429,6 +422,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,6 +441,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -449,38 +508,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,13 +538,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -508,41 +547,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,16 +561,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +577,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -589,13 +649,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +685,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -619,145 +733,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,6 +803,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,24 +866,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -873,161 +879,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1807,8 +1818,8 @@
   <sheetPr/>
   <dimension ref="A1:AC163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="K142" sqref="K142"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1972,8 +1983,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="35" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1992,8 +2003,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A43" s="1" t="s">
+    <row r="43" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A43" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2037,13 +2048,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A74" s="3" t="s">
+    <row r="74" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A74" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" spans="9:9">
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2058,34 +2069,34 @@
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="11:29">
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-      <c r="AA79" s="6"/>
-      <c r="AB79" s="6"/>
-      <c r="AC79" s="6"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="9"/>
     </row>
     <row r="80" s="2" customFormat="1" spans="2:10">
-      <c r="B80" s="4"/>
+      <c r="B80" s="6"/>
       <c r="J80" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" spans="2:10">
-      <c r="B81" s="4"/>
+      <c r="B81" s="6"/>
       <c r="J81" s="2" t="s">
         <v>79</v>
       </c>
@@ -2111,34 +2122,34 @@
       </c>
     </row>
     <row r="88" s="2" customFormat="1" spans="2:2">
-      <c r="B88" s="4"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="100" s="2" customFormat="1" spans="11:29">
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
-      <c r="Y100" s="6"/>
-      <c r="Z100" s="6"/>
-      <c r="AA100" s="6"/>
-      <c r="AB100" s="6"/>
-      <c r="AC100" s="6"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="9"/>
+      <c r="AA100" s="9"/>
+      <c r="AB100" s="9"/>
+      <c r="AC100" s="9"/>
     </row>
     <row r="101" s="2" customFormat="1" spans="2:2">
-      <c r="B101" s="4"/>
-    </row>
-    <row r="106" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A106" s="3" t="s">
+      <c r="B101" s="6"/>
+    </row>
+    <row r="106" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A106" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2153,7 +2164,7 @@
       </c>
     </row>
     <row r="111" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2177,8 +2188,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A117" s="3" t="s">
+    <row r="117" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A117" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2198,8 +2209,8 @@
       </c>
     </row>
     <row r="125" ht="15" customHeight="1"/>
-    <row r="126" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A126" s="3" t="s">
+    <row r="126" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A126" s="5" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2280,18 +2291,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="2" t="s">
+    <row r="161" s="4" customFormat="1" spans="1:1">
+      <c r="A161" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="2" t="s">
+    <row r="162" s="4" customFormat="1" spans="1:1">
+      <c r="A162" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="2" t="s">
+    <row r="163" s="4" customFormat="1" spans="1:1">
+      <c r="A163" s="4" t="s">
         <v>114</v>
       </c>
     </row>

--- a/狼人杀优化记录.xlsx
+++ b/狼人杀优化记录.xlsx
@@ -10,13 +10,14 @@
     <sheet name="优化记录" sheetId="2" r:id="rId1"/>
     <sheet name="汇总【2月份任务】详细" sheetId="4" r:id="rId2"/>
     <sheet name="3月份汇总" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>配置游戏语音，配置游戏流程数据。【功能OK，部分配音还需录制】</t>
   </si>
@@ -222,148 +223,187 @@
     <t>1、游戏角色满级30级，满级后不再获得经验。</t>
   </si>
   <si>
+    <t>2、游戏胜利：好人胜利经验+100，狼人胜利经验+150，第三方获胜经验+200，MVP额外获得,100经验。</t>
+  </si>
+  <si>
+    <t>3、游戏失败：无论什么角色经验+80</t>
+  </si>
+  <si>
+    <t>4、初始默认为1级，每级升级所需经验需支持配置。</t>
+  </si>
+  <si>
+    <t>防止作弊</t>
+  </si>
+  <si>
+    <t>5、若游戏时间小于10分钟，无论胜利失败，经验+10</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>1、金币可用于抽卡，1000金币可抽卡1次。</t>
+  </si>
+  <si>
+    <t>2、游戏胜利：好人胜利金币+100，狼人胜利金币+150，第三方胜利金币+200，MVP额外获得,金币100。</t>
+  </si>
+  <si>
+    <t>3、游戏失败：无论什么角色金币+80</t>
+  </si>
+  <si>
+    <t>4、若游戏时间小于10分钟，无论胜利失败，金币+10</t>
+  </si>
+  <si>
+    <t>结算界面</t>
+  </si>
+  <si>
+    <t>系统消息界面</t>
+  </si>
+  <si>
+    <t>1、聊天信息面板</t>
+  </si>
+  <si>
+    <t>点击向上箭头可拉开信息面板，</t>
+  </si>
+  <si>
+    <t>点击向下箭头收缩信息面板。</t>
+  </si>
+  <si>
+    <t>信息面板需记录一下内容</t>
+  </si>
+  <si>
+    <t>1）玩家进入和退出房间的消息。</t>
+  </si>
+  <si>
+    <t>2）法官喊话消息</t>
+  </si>
+  <si>
+    <t>3）晚上死亡信息</t>
+  </si>
+  <si>
+    <t>4）投票信息</t>
+  </si>
+  <si>
+    <t>5）玩家打字的消息内容。</t>
+  </si>
+  <si>
+    <t>狼人小队频道</t>
+  </si>
+  <si>
+    <t>狼人可在天黑闭眼阶段打字沟通，只有狼人可见。其他人不能打字，也看不见狼人的沟通信息。</t>
+  </si>
+  <si>
+    <t>警长精选环节：退水【OK】</t>
+  </si>
+  <si>
+    <t>警长精选环节：退水</t>
+  </si>
+  <si>
+    <t>1.在警长竞选环节，最后一个参选人结束发言之前，参与竞选的玩家可以选择退出竞选。【ZKL】</t>
+  </si>
+  <si>
+    <t>2.每个参与警长竞选的人，会多出1个按钮，退水，点击退水这移除竞选队伍，且把移除警徽标记【黄刚】</t>
+  </si>
+  <si>
+    <t>3.本轮竞选的人在这轮丧失投票权利。</t>
+  </si>
+  <si>
+    <t>游戏倒计时</t>
+  </si>
+  <si>
+    <t>游戏倒计时：</t>
+  </si>
+  <si>
+    <t>1.每个环节需要加上对应的倒计时。</t>
+  </si>
+  <si>
+    <t>2.去除问号，把倒计时放问号那个位置。</t>
+  </si>
+  <si>
+    <t>个人战绩界面</t>
+  </si>
+  <si>
+    <t>皮肤显示当前正在使用的皮肤，依次统计出：预言家、女巫、猎人、白痴、守卫、平民、狼、白狼、盗贼、混血儿的胜率。</t>
+  </si>
+  <si>
+    <t>玩家名称</t>
+  </si>
+  <si>
+    <t>段位</t>
+  </si>
+  <si>
+    <t>胜率</t>
+  </si>
+  <si>
+    <t>月卡</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>魅力</t>
+  </si>
+  <si>
+    <t>送花送礼物产生，留好接口</t>
+  </si>
+  <si>
+    <t>神装</t>
+  </si>
+  <si>
+    <t>最高级的时装数量，留好接口</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>信用</t>
+  </si>
+  <si>
+    <t>初始100，掉线1场减10分，每成功完成一场比较加1分，若分数低于60分，进入房间需要消耗10钻石。若分数低于30，进入房间需要消耗100钻石。</t>
+  </si>
+  <si>
+    <t>战力</t>
+  </si>
+  <si>
+    <t>具体怎么算，后续给出方案。</t>
+  </si>
+  <si>
+    <t>各个角色的胜场负场</t>
+  </si>
+  <si>
+    <t>1.排麦</t>
+  </si>
+  <si>
+    <t>2.房间外面状态</t>
+  </si>
+  <si>
+    <t>3.配音</t>
+  </si>
+  <si>
     <t>2、好人胜利经验+100，狼人胜利经验+150，第三方获胜经验+200，MVP额外获得,100经验。</t>
   </si>
   <si>
+    <t>需要经验</t>
+  </si>
+  <si>
     <t>3、初始默认为1级，每级升级所需经验需支持配置。</t>
   </si>
   <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>1、金币可用于抽卡，1000金币可抽卡1次。</t>
-  </si>
-  <si>
-    <t>2、好人胜利金币+100，狼人胜利金币+150，第三方胜利金币+200，MVP额外获得,金币100。</t>
-  </si>
-  <si>
-    <t>结算界面</t>
-  </si>
-  <si>
-    <t>系统消息界面</t>
-  </si>
-  <si>
-    <t>1、聊天信息面板</t>
-  </si>
-  <si>
-    <t>点击向上箭头可拉开信息面板，</t>
-  </si>
-  <si>
-    <t>点击向下箭头收缩信息面板。</t>
-  </si>
-  <si>
-    <t>信息面板需记录一下内容</t>
-  </si>
-  <si>
-    <t>1）玩家进入和退出房间的消息。</t>
-  </si>
-  <si>
-    <t>2）法官喊话消息</t>
-  </si>
-  <si>
-    <t>3）晚上死亡信息</t>
-  </si>
-  <si>
-    <t>4）投票信息</t>
-  </si>
-  <si>
-    <t>5）玩家打字的消息内容。</t>
-  </si>
-  <si>
-    <t>狼人小队频道</t>
-  </si>
-  <si>
-    <t>狼人可在天黑闭眼阶段打字沟通，只有狼人可见。其他人不能打字，也看不见狼人的沟通信息。</t>
-  </si>
-  <si>
-    <t>警长精选环节：退水【OK】</t>
-  </si>
-  <si>
-    <t>警长精选环节：退水</t>
-  </si>
-  <si>
-    <t>1.在警长竞选环节，最后一个参选人结束发言之前，参与竞选的玩家可以选择退出竞选。【ZKL】</t>
-  </si>
-  <si>
-    <t>2.每个参与警长竞选的人，会多出1个按钮，退水，点击退水这移除竞选队伍，且把移除警徽标记【黄刚】</t>
-  </si>
-  <si>
-    <t>3.本轮竞选的人在这轮丧失投票权利。</t>
-  </si>
-  <si>
-    <t>游戏倒计时</t>
-  </si>
-  <si>
-    <t>游戏倒计时：</t>
-  </si>
-  <si>
-    <t>1.每个环节需要加上对应的倒计时。</t>
-  </si>
-  <si>
-    <t>2.去除问号，把倒计时放问号那个位置。</t>
-  </si>
-  <si>
-    <t>个人战绩界面</t>
-  </si>
-  <si>
-    <t>皮肤显示当前正在使用的皮肤，依次统计出：预言家、女巫、猎人、白痴、守卫、平民、狼、白狼、盗贼、混血儿的胜率。</t>
-  </si>
-  <si>
-    <t>玩家名称</t>
-  </si>
-  <si>
-    <t>段位</t>
-  </si>
-  <si>
-    <t>胜率</t>
-  </si>
-  <si>
-    <t>月卡</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>魅力</t>
-  </si>
-  <si>
-    <t>送花送礼物产生，留好接口</t>
-  </si>
-  <si>
-    <t>神装</t>
-  </si>
-  <si>
-    <t>最高级的时装数量，留好接口</t>
-  </si>
-  <si>
-    <t>钻石</t>
-  </si>
-  <si>
-    <t>信用</t>
-  </si>
-  <si>
-    <t>初始100，掉线1场减10分，每成功完成一场比较加1分，若分数低于60分，进入房间需要消耗10钻石。若分数低于30，进入房间需要消耗100钻石。</t>
-  </si>
-  <si>
-    <t>战力</t>
-  </si>
-  <si>
-    <t>具体怎么算，后续给出方案。</t>
-  </si>
-  <si>
-    <t>各个角色的胜场负场</t>
-  </si>
-  <si>
-    <t>1.排麦</t>
-  </si>
-  <si>
-    <t>2.房间外面状态</t>
-  </si>
-  <si>
-    <t>3.配音</t>
-  </si>
-  <si>
-    <t>1.死了的人可以退出房间，重新开始进其他房间。</t>
+    <t>经验=基础值+（等级-1）^调整系数</t>
+  </si>
+  <si>
+    <t>每场</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>每天总额</t>
+  </si>
+  <si>
+    <t>天数</t>
+  </si>
+  <si>
+    <t>总经验</t>
   </si>
 </sst>
 </file>
@@ -371,10 +411,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -411,13 +451,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -426,10 +459,40 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,6 +501,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,16 +526,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,54 +588,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,22 +601,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -583,37 +623,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,36 +785,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -734,36 +804,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,6 +814,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -788,6 +867,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,212 +914,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,13 +1143,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>36830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1127,7 +1167,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="15640050"/>
+          <a:off x="685800" y="16687800"/>
           <a:ext cx="3209925" cy="6113780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1145,13 +1185,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1169,7 +1209,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="25307925"/>
+          <a:off x="714375" y="26355675"/>
           <a:ext cx="542925" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1187,13 +1227,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>94615</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1211,7 +1251,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="26860500"/>
+          <a:off x="685800" y="27908250"/>
           <a:ext cx="3523615" cy="5876290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1229,13 +1269,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180340</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1253,7 +1293,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="11258550"/>
+          <a:off x="685800" y="12306300"/>
           <a:ext cx="3609340" cy="3923665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1816,10 +1856,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC163"/>
+  <dimension ref="A1:AC168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="H161" sqref="H161"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2028,8 +2068,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:1">
-      <c r="A49" s="2" t="s">
+    <row r="49" s="2" customFormat="1" spans="2:2">
+      <c r="B49" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2043,267 +2083,297 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:1">
-      <c r="A54" s="2" t="s">
+    <row r="52" s="2" customFormat="1" spans="1:1">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A74" s="5" t="s">
+    <row r="53" s="2" customFormat="1" spans="2:2">
+      <c r="B53" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" spans="9:9">
-      <c r="I76" s="8" t="s">
+    <row r="54" s="2" customFormat="1" spans="2:2">
+      <c r="B54" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" spans="10:10">
-      <c r="J77" s="2" t="s">
+    <row r="55" s="2" customFormat="1" spans="2:2">
+      <c r="B55" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="10:10">
-      <c r="J78" s="2" t="s">
+    <row r="56" s="2" customFormat="1" spans="2:2">
+      <c r="B56" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" spans="11:29">
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="9"/>
-      <c r="AA79" s="9"/>
-      <c r="AB79" s="9"/>
-      <c r="AC79" s="9"/>
-    </row>
-    <row r="80" s="2" customFormat="1" spans="2:10">
-      <c r="B80" s="6"/>
-      <c r="J80" s="2" t="s">
+    <row r="59" s="2" customFormat="1" spans="1:1">
+      <c r="A59" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" spans="2:10">
-      <c r="B81" s="6"/>
-      <c r="J81" s="2" t="s">
+    <row r="79" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A79" s="5" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" spans="9:9">
+      <c r="I81" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" spans="10:10">
       <c r="J82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="10:10">
       <c r="J83" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" s="2" customFormat="1" spans="10:10">
-      <c r="J84" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" spans="10:10">
+    <row r="84" s="2" customFormat="1" spans="11:29">
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="9"/>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="2:10">
+      <c r="B85" s="6"/>
       <c r="J85" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" spans="2:2">
-      <c r="B88" s="6"/>
-    </row>
-    <row r="100" s="2" customFormat="1" spans="11:29">
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="9"/>
-      <c r="R100" s="9"/>
-      <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
-      <c r="U100" s="9"/>
-      <c r="V100" s="9"/>
-      <c r="W100" s="9"/>
-      <c r="X100" s="9"/>
-      <c r="Y100" s="9"/>
-      <c r="Z100" s="9"/>
-      <c r="AA100" s="9"/>
-      <c r="AB100" s="9"/>
-      <c r="AC100" s="9"/>
-    </row>
-    <row r="101" s="2" customFormat="1" spans="2:2">
-      <c r="B101" s="6"/>
-    </row>
-    <row r="106" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A106" s="5" t="s">
+    <row r="86" s="2" customFormat="1" spans="2:10">
+      <c r="B86" s="6"/>
+      <c r="J86" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="2" t="s">
+    <row r="87" s="2" customFormat="1" spans="10:10">
+      <c r="J87" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A111" s="7" t="s">
+    <row r="88" s="2" customFormat="1" spans="10:10">
+      <c r="J88" s="2" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1" spans="10:10">
+      <c r="J89" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" spans="10:10">
+      <c r="J90" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" s="2" customFormat="1" spans="2:2">
+      <c r="B93" s="6"/>
+    </row>
+    <row r="105" s="2" customFormat="1" spans="11:29">
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+      <c r="AA105" s="9"/>
+      <c r="AB105" s="9"/>
+      <c r="AC105" s="9"/>
+    </row>
+    <row r="106" s="2" customFormat="1" spans="2:2">
+      <c r="B106" s="6"/>
+    </row>
+    <row r="111" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A111" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="117" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A117" s="5" t="s">
+    <row r="116" s="1" customFormat="1" ht="15" spans="1:1">
+      <c r="A116" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="2" t="s">
+    <row r="118" spans="1:1">
+      <c r="A118" s="2" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="125" ht="15" customHeight="1"/>
-    <row r="126" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A126" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="2" t="s">
+    <row r="122" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A122" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="10:10">
-      <c r="J131" s="2" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="132" spans="10:10">
-      <c r="J132" s="2" t="s">
+    <row r="125" spans="2:2">
+      <c r="B125" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="133" spans="10:10">
-      <c r="J133" s="2" t="s">
+    <row r="126" spans="2:2">
+      <c r="B126" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="10:10">
-      <c r="J134" s="2" t="s">
+    <row r="130" ht="15" customHeight="1"/>
+    <row r="131" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A131" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="10:10">
-      <c r="J135" s="2" t="s">
+    <row r="133" spans="2:2">
+      <c r="B133" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="10:11">
+    <row r="136" spans="10:10">
       <c r="J136" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K136" s="2" t="s">
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137" s="2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="137" spans="10:11">
-      <c r="J137" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="138" spans="10:10">
       <c r="J138" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="10:10">
       <c r="J139" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10">
+      <c r="J140" s="2" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="140" spans="10:11">
-      <c r="J140" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="141" spans="10:11">
       <c r="J141" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="10:11">
+      <c r="J142" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K142" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="145" spans="10:10">
+    <row r="143" spans="10:10">
+      <c r="J143" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="10:10">
+      <c r="J144" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="10:11">
       <c r="J145" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="161" s="4" customFormat="1" spans="1:1">
-      <c r="A161" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="162" s="4" customFormat="1" spans="1:1">
-      <c r="A162" s="4" t="s">
+      <c r="K145" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="163" s="4" customFormat="1" spans="1:1">
-      <c r="A163" s="4" t="s">
+    <row r="146" spans="10:11">
+      <c r="J146" s="2" t="s">
         <v>114</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="10:10">
+      <c r="J150" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="166" s="4" customFormat="1" spans="1:1">
+      <c r="A166" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="167" s="4" customFormat="1" spans="1:1">
+      <c r="A167" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168" s="4" customFormat="1" spans="1:1">
+      <c r="A168" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2316,22 +2386,256 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="10:10">
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="11:11">
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="11:11">
+      <c r="K3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="K4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <f>H11*I11</f>
+        <v>2500</v>
+      </c>
+      <c r="K11">
+        <v>60</v>
+      </c>
+      <c r="L11">
+        <f>J11*K11</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/狼人杀优化记录.xlsx
+++ b/狼人杀优化记录.xlsx
@@ -10,14 +10,14 @@
     <sheet name="优化记录" sheetId="2" r:id="rId1"/>
     <sheet name="汇总【2月份任务】详细" sheetId="4" r:id="rId2"/>
     <sheet name="3月份汇总" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="经验值" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t>配置游戏语音，配置游戏流程数据。【功能OK，部分配音还需录制】</t>
   </si>
@@ -238,6 +238,9 @@
     <t>5、若游戏时间小于10分钟，无论胜利失败，经验+10</t>
   </si>
   <si>
+    <t>6、若游戏小于3分钟，无论胜利失败，经验+0</t>
+  </si>
+  <si>
     <t>金币</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
     <t>4、若游戏时间小于10分钟，无论胜利失败，金币+10</t>
   </si>
   <si>
+    <t>5、若游戏小于3分钟，无论胜利失败，金币+0</t>
+  </si>
+  <si>
     <t>结算界面</t>
   </si>
   <si>
@@ -379,18 +385,54 @@
     <t>3.配音</t>
   </si>
   <si>
+    <t>4.送鲜花</t>
+  </si>
+  <si>
+    <t>需要经验</t>
+  </si>
+  <si>
+    <t>get(1)-&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    300;</t>
+  </si>
+  <si>
+    <t>get(2) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    400;</t>
+  </si>
+  <si>
     <t>2、好人胜利经验+100，狼人胜利经验+150，第三方获胜经验+200，MVP额外获得,100经验。</t>
   </si>
   <si>
-    <t>需要经验</t>
+    <t>get(3) -&gt;</t>
   </si>
   <si>
     <t>3、初始默认为1级，每级升级所需经验需支持配置。</t>
   </si>
   <si>
+    <t xml:space="preserve">    500;</t>
+  </si>
+  <si>
+    <t>get(4) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    600;</t>
+  </si>
+  <si>
+    <t>get(5) -&gt;</t>
+  </si>
+  <si>
     <t>经验=基础值+（等级-1）^调整系数</t>
   </si>
   <si>
+    <t xml:space="preserve">    700;</t>
+  </si>
+  <si>
+    <t>get(6) -&gt;</t>
+  </si>
+  <si>
     <t>每场</t>
   </si>
   <si>
@@ -404,6 +446,156 @@
   </si>
   <si>
     <t>总经验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    800;</t>
+  </si>
+  <si>
+    <t>get(7) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    900;</t>
+  </si>
+  <si>
+    <t>get(8) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1000;</t>
+  </si>
+  <si>
+    <t>get(9) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1100;</t>
+  </si>
+  <si>
+    <t>get(10) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1200;</t>
+  </si>
+  <si>
+    <t>get(11) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1380;</t>
+  </si>
+  <si>
+    <t>75000=500+(等级-1)^300</t>
+  </si>
+  <si>
+    <t>get(12) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1560;</t>
+  </si>
+  <si>
+    <t>get(13) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1740;</t>
+  </si>
+  <si>
+    <t>get(14) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1920;</t>
+  </si>
+  <si>
+    <t>get(15) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2100;</t>
+  </si>
+  <si>
+    <t>get(16) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2280;</t>
+  </si>
+  <si>
+    <t>get(17) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2460;</t>
+  </si>
+  <si>
+    <t>get(18) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2640;</t>
+  </si>
+  <si>
+    <t>get(19) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2820;</t>
+  </si>
+  <si>
+    <t>get(20) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3000;</t>
+  </si>
+  <si>
+    <t>get(21) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3300;</t>
+  </si>
+  <si>
+    <t>get(22) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3600;</t>
+  </si>
+  <si>
+    <t>get(23) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3900;</t>
+  </si>
+  <si>
+    <t>get(24) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4200;</t>
+  </si>
+  <si>
+    <t>get(25) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4500;</t>
+  </si>
+  <si>
+    <t>get(26) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4800;</t>
+  </si>
+  <si>
+    <t>get(27) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5100;</t>
+  </si>
+  <si>
+    <t>get(28) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5400;</t>
+  </si>
+  <si>
+    <t>get(29) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5700;</t>
+  </si>
+  <si>
+    <t>get(30) -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6000;</t>
   </si>
 </sst>
 </file>
@@ -411,8 +603,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -451,6 +643,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -458,39 +657,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,23 +716,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,7 +733,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,64 +779,20 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -623,7 +815,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,175 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,6 +1006,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -835,38 +1072,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,186 +1106,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,13 +1335,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>36830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1167,7 +1359,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="16687800"/>
+          <a:off x="685800" y="17106900"/>
           <a:ext cx="3209925" cy="6113780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1185,13 +1377,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1209,7 +1401,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="26355675"/>
+          <a:off x="714375" y="26774775"/>
           <a:ext cx="542925" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1227,13 +1419,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>94615</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1251,7 +1443,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="27908250"/>
+          <a:off x="685800" y="28327350"/>
           <a:ext cx="3523615" cy="5876290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1269,13 +1461,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180340</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1293,7 +1485,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="12306300"/>
+          <a:off x="685800" y="12725400"/>
           <a:ext cx="3609340" cy="3923665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1856,10 +2048,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2083,13 +2275,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:1">
-      <c r="A52" s="2" t="s">
+    <row r="52" s="2" customFormat="1" spans="2:2">
+      <c r="B52" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="2:2">
-      <c r="B53" s="2" t="s">
+    <row r="53" s="2" customFormat="1" spans="1:1">
+      <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2105,78 +2297,78 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="2:2">
       <c r="B56" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="2:2">
+      <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" s="2" customFormat="1" spans="1:1">
-      <c r="A59" s="2" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A79" s="5" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" spans="9:9">
-      <c r="I81" s="8" t="s">
+    <row r="61" s="2" customFormat="1" spans="1:1">
+      <c r="A61" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" spans="10:10">
-      <c r="J82" s="2" t="s">
+    <row r="81" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" spans="10:10">
-      <c r="J83" s="2" t="s">
+    <row r="83" s="2" customFormat="1" spans="9:9">
+      <c r="I83" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" spans="11:29">
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
-      <c r="Z84" s="9"/>
-      <c r="AA84" s="9"/>
-      <c r="AB84" s="9"/>
-      <c r="AC84" s="9"/>
-    </row>
-    <row r="85" s="2" customFormat="1" spans="2:10">
-      <c r="B85" s="6"/>
+    <row r="84" s="2" customFormat="1" spans="10:10">
+      <c r="J84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="10:10">
       <c r="J85" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" spans="2:10">
-      <c r="B86" s="6"/>
-      <c r="J86" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" spans="10:10">
+    <row r="86" s="2" customFormat="1" spans="11:29">
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="9"/>
+      <c r="AC86" s="9"/>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="2:10">
+      <c r="B87" s="6"/>
       <c r="J87" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" spans="10:10">
+    <row r="88" s="2" customFormat="1" spans="2:10">
+      <c r="B88" s="6"/>
       <c r="J88" s="2" t="s">
         <v>86</v>
       </c>
@@ -2191,65 +2383,65 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" spans="2:2">
-      <c r="B93" s="6"/>
-    </row>
-    <row r="105" s="2" customFormat="1" spans="11:29">
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="9"/>
-      <c r="R105" s="9"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
-      <c r="U105" s="9"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
-      <c r="X105" s="9"/>
-      <c r="Y105" s="9"/>
-      <c r="Z105" s="9"/>
-      <c r="AA105" s="9"/>
-      <c r="AB105" s="9"/>
-      <c r="AC105" s="9"/>
-    </row>
-    <row r="106" s="2" customFormat="1" spans="2:2">
-      <c r="B106" s="6"/>
-    </row>
-    <row r="111" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A111" s="5" t="s">
+    <row r="91" s="2" customFormat="1" spans="10:10">
+      <c r="J91" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="2" t="s">
+    <row r="92" s="2" customFormat="1" spans="10:10">
+      <c r="J92" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A116" s="7" t="s">
+    <row r="95" s="2" customFormat="1" spans="2:2">
+      <c r="B95" s="6"/>
+    </row>
+    <row r="107" s="2" customFormat="1" spans="11:29">
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="9"/>
+      <c r="AA107" s="9"/>
+      <c r="AB107" s="9"/>
+      <c r="AC107" s="9"/>
+    </row>
+    <row r="108" s="2" customFormat="1" spans="2:2">
+      <c r="B108" s="6"/>
+    </row>
+    <row r="113" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A113" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="2" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="2" t="s">
+    <row r="118" s="1" customFormat="1" ht="15" spans="1:1">
+      <c r="A118" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="2" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2258,44 +2450,44 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A122" s="5" t="s">
+    <row r="122" spans="2:2">
+      <c r="B122" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="2" t="s">
+    <row r="123" spans="2:2">
+      <c r="B123" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="2" t="s">
+    <row r="124" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A124" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="2" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1"/>
-    <row r="131" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A131" s="5" t="s">
+    <row r="127" spans="2:2">
+      <c r="B127" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="2" t="s">
+    <row r="128" spans="2:2">
+      <c r="B128" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="10:10">
-      <c r="J136" s="2" t="s">
+    <row r="132" ht="15" customHeight="1"/>
+    <row r="133" s="3" customFormat="1" ht="15" spans="1:1">
+      <c r="A133" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="137" spans="10:10">
-      <c r="J137" s="2" t="s">
+    <row r="135" spans="2:2">
+      <c r="B135" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2314,66 +2506,81 @@
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="10:11">
+    <row r="141" spans="10:10">
       <c r="J141" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K141" s="2" t="s">
+    </row>
+    <row r="142" spans="10:10">
+      <c r="J142" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="10:11">
-      <c r="J142" s="2" t="s">
+    <row r="143" spans="10:11">
+      <c r="J143" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="K143" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="143" spans="10:10">
-      <c r="J143" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="144" spans="10:10">
+    <row r="144" spans="10:11">
       <c r="J144" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="145" spans="10:11">
+      <c r="K144" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10">
       <c r="J145" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K145" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="10:10">
+      <c r="J146" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="146" spans="10:11">
-      <c r="J146" s="2" t="s">
+    <row r="147" spans="10:11">
+      <c r="J147" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K147" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="150" spans="10:10">
-      <c r="J150" s="2" t="s">
+    <row r="148" spans="10:11">
+      <c r="J148" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="166" s="4" customFormat="1" spans="1:1">
-      <c r="A166" s="4" t="s">
+      <c r="K148" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="167" s="4" customFormat="1" spans="1:1">
-      <c r="A167" s="4" t="s">
+    <row r="152" spans="10:10">
+      <c r="J152" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="168" s="4" customFormat="1" spans="1:1">
       <c r="A168" s="4" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="169" s="4" customFormat="1" spans="1:1">
+      <c r="A169" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" s="4" customFormat="1" spans="1:1">
+      <c r="A170" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2403,235 +2610,648 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="10:10">
-      <c r="J1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="11:11">
-      <c r="K2" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2+$C$2</f>
+        <v>400</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="11:11">
-      <c r="K3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B11" si="0">B3+$C$2</f>
+        <v>500</v>
+      </c>
+      <c r="I4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="I5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="I6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="I8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+      <c r="D11">
+        <f>SUM(B2:B11)</f>
+        <v>7500</v>
+      </c>
+      <c r="E11">
+        <v>15000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" t="s">
+        <v>141</v>
+      </c>
+      <c r="P11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>B11+$C$11</f>
+        <v>1380</v>
+      </c>
+      <c r="I12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f>L12*M12</f>
+        <v>2500</v>
+      </c>
+      <c r="O12">
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <f>N12*O12</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B21" si="1">B12+$C$11</f>
+        <v>1560</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>1740</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>0.2</v>
+      </c>
+      <c r="Q14">
+        <f>$P$12*P14</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>0.3</v>
+      </c>
+      <c r="Q15">
+        <f>$P$12*P15</f>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16">
+        <v>30</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <f>$P$12*P16</f>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>2280</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>2460</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>2640</v>
+      </c>
+      <c r="I19" t="s">
         <v>150</v>
       </c>
-      <c r="G4">
-        <v>200</v>
-      </c>
-      <c r="K4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" t="s">
-        <v>126</v>
-      </c>
-      <c r="K10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>250</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <f>H11*I11</f>
-        <v>2500</v>
-      </c>
-      <c r="K11">
-        <v>60</v>
-      </c>
-      <c r="L11">
-        <f>J11*K11</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>2820</v>
+      </c>
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="C21">
+        <v>300</v>
+      </c>
+      <c r="D21">
+        <f>SUM(B12:B21)</f>
+        <v>21900</v>
+      </c>
+      <c r="E21">
+        <v>22500</v>
+      </c>
+      <c r="I21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f>B21+$C$21</f>
+        <v>3300</v>
+      </c>
+      <c r="I22" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:B31" si="2">B22+$C$21</f>
+        <v>3600</v>
+      </c>
+      <c r="I23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N23">
+        <f>75000-500</f>
+        <v>74500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>3900</v>
+      </c>
+      <c r="I24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+      <c r="I25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="I26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+      <c r="I27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>5100</v>
+      </c>
+      <c r="I28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>5400</v>
+      </c>
+      <c r="I29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>5700</v>
+      </c>
+      <c r="I30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
         <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="D31">
+        <f>SUM(B22:B31)</f>
+        <v>46500</v>
+      </c>
+      <c r="E31">
+        <v>37500</v>
+      </c>
+      <c r="I31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9">
+      <c r="I32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35">
+        <f>SUM(B2:B31)</f>
+        <v>75900</v>
+      </c>
+      <c r="I35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/狼人杀优化记录.xlsx
+++ b/狼人杀优化记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="优化记录" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
   <si>
     <t>配置游戏语音，配置游戏流程数据。【功能OK，部分配音还需录制】</t>
   </si>
@@ -205,6 +205,9 @@
     <t>跟随的主人标记</t>
   </si>
   <si>
+    <t>玩家注册登录手机串</t>
+  </si>
+  <si>
     <t>玩家注册登录系统，2月底或3月初上线必不可少的系统，且后续等级系统、个人战绩界面需要用到该系统。</t>
   </si>
   <si>
@@ -386,6 +389,21 @@
   </si>
   <si>
     <t>4.送鲜花</t>
+  </si>
+  <si>
+    <t>1.送花界面</t>
+  </si>
+  <si>
+    <t>2.准备按钮、倒计时</t>
+  </si>
+  <si>
+    <t>3.升级结算界面</t>
+  </si>
+  <si>
+    <t>4.聊天信息下拉界面</t>
+  </si>
+  <si>
+    <t>5.排麦界面</t>
   </si>
   <si>
     <t>需要经验</t>
@@ -603,10 +621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -671,8 +689,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,9 +735,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,22 +775,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,14 +790,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -755,9 +797,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,32 +811,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,7 +833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +893,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,31 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,18 +977,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -972,18 +1008,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,6 +1030,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1020,6 +1053,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,17 +1113,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1090,19 +1125,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,10 +1138,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,7 +1159,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1144,130 +1168,136 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1487,6 +1517,48 @@
         <a:xfrm>
           <a:off x="685800" y="12725400"/>
           <a:ext cx="3609340" cy="3923665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351155</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>199390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="36185475"/>
+          <a:ext cx="9237980" cy="3656965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2048,10 +2120,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC171"/>
+  <dimension ref="A1:AC198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2217,370 +2289,432 @@
     </row>
     <row r="35" s="3" customFormat="1" ht="15" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A43" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" ht="15" spans="1:1">
+      <c r="A43" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="2:2">
       <c r="B49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="2:2">
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="2:2">
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="2:2">
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" spans="2:2">
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" spans="2:2">
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="2:2">
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A81" s="5" t="s">
-        <v>81</v>
+      <c r="A81" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="9:9">
-      <c r="I83" s="8" t="s">
-        <v>82</v>
+      <c r="I83" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" spans="10:10">
       <c r="J84" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="10:10">
       <c r="J85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="11:29">
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
-      <c r="Z86" s="9"/>
-      <c r="AA86" s="9"/>
-      <c r="AB86" s="9"/>
-      <c r="AC86" s="9"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="13"/>
+      <c r="X86" s="13"/>
+      <c r="Y86" s="13"/>
+      <c r="Z86" s="13"/>
+      <c r="AA86" s="13"/>
+      <c r="AB86" s="13"/>
+      <c r="AC86" s="13"/>
     </row>
     <row r="87" s="2" customFormat="1" spans="2:10">
-      <c r="B87" s="6"/>
+      <c r="B87" s="9"/>
       <c r="J87" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" spans="2:10">
-      <c r="B88" s="6"/>
+      <c r="B88" s="9"/>
       <c r="J88" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" spans="10:10">
       <c r="J89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" spans="10:10">
       <c r="J90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" spans="10:10">
       <c r="J91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="10:10">
       <c r="J92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" spans="2:2">
-      <c r="B95" s="6"/>
-    </row>
-    <row r="107" s="2" customFormat="1" spans="11:29">
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="9"/>
-      <c r="P107" s="9"/>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="9"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
-      <c r="U107" s="9"/>
-      <c r="V107" s="9"/>
-      <c r="W107" s="9"/>
-      <c r="X107" s="9"/>
-      <c r="Y107" s="9"/>
-      <c r="Z107" s="9"/>
-      <c r="AA107" s="9"/>
-      <c r="AB107" s="9"/>
-      <c r="AC107" s="9"/>
-    </row>
-    <row r="108" s="2" customFormat="1" spans="2:2">
-      <c r="B108" s="6"/>
-    </row>
-    <row r="113" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A113" s="5" t="s">
-        <v>91</v>
+      <c r="B95" s="9"/>
+    </row>
+    <row r="101" spans="9:9">
+      <c r="I101" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9">
+      <c r="I102" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9">
+      <c r="I103" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9">
+      <c r="I104" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="9:9">
+      <c r="I105" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="9:9">
+      <c r="I106" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" s="2" customFormat="1" spans="9:29">
+      <c r="I107" s="2">
+        <v>62</v>
+      </c>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="13"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="13"/>
+      <c r="X107" s="13"/>
+      <c r="Y107" s="13"/>
+      <c r="Z107" s="13"/>
+      <c r="AA107" s="13"/>
+      <c r="AB107" s="13"/>
+      <c r="AC107" s="13"/>
+    </row>
+    <row r="108" s="2" customFormat="1" spans="2:9">
+      <c r="B108" s="9"/>
+      <c r="I108" s="2">
+        <f>SUM(I101:I107)</f>
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="113" s="5" customFormat="1" ht="15" spans="1:1">
+      <c r="A113" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" ht="15" spans="1:1">
-      <c r="A118" s="7" t="s">
-        <v>93</v>
+      <c r="A118" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="124" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A124" s="5" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="124" s="5" customFormat="1" ht="15" spans="1:1">
+      <c r="A124" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1"/>
-    <row r="133" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A133" s="5" t="s">
-        <v>102</v>
+    <row r="133" s="5" customFormat="1" ht="15" spans="1:1">
+      <c r="A133" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="10:10">
       <c r="J138" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="10:10">
       <c r="J139" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="10:10">
       <c r="J140" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="10:10">
       <c r="J141" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="10:10">
       <c r="J142" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="10:11">
       <c r="J143" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="10:11">
       <c r="J144" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="10:10">
       <c r="J145" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="10:10">
       <c r="J146" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" spans="10:11">
       <c r="J147" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" spans="10:11">
       <c r="J148" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152" spans="10:10">
       <c r="J152" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="168" s="4" customFormat="1" spans="1:1">
-      <c r="A168" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="169" s="4" customFormat="1" spans="1:1">
-      <c r="A169" s="4" t="s">
+    <row r="168" s="6" customFormat="1" spans="1:1">
+      <c r="A168" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="170" s="4" customFormat="1" spans="1:1">
-      <c r="A170" s="4" t="s">
+    <row r="169" s="6" customFormat="1" spans="1:1">
+      <c r="A169" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="2" t="s">
+    <row r="170" s="7" customFormat="1" spans="1:1">
+      <c r="A170" s="7" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="171" s="6" customFormat="1" spans="1:1">
+      <c r="A171" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2623,13 +2757,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2643,10 +2777,10 @@
         <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2658,10 +2792,10 @@
         <v>400</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2673,10 +2807,10 @@
         <v>500</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2688,10 +2822,10 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2703,7 +2837,7 @@
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2715,7 +2849,7 @@
         <v>800</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2727,7 +2861,7 @@
         <v>900</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2739,10 +2873,10 @@
         <v>1000</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2754,7 +2888,7 @@
         <v>1100</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2776,22 +2910,22 @@
         <v>15000</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2803,7 +2937,7 @@
         <v>1380</v>
       </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L12">
         <v>250</v>
@@ -2832,7 +2966,7 @@
         <v>1560</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2844,7 +2978,7 @@
         <v>1740</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O14">
         <v>10</v>
@@ -2853,7 +2987,7 @@
         <v>0.2</v>
       </c>
       <c r="Q14">
-        <f>$P$12*P14</f>
+        <f t="shared" ref="Q14:Q16" si="2">$P$12*P14</f>
         <v>15000</v>
       </c>
     </row>
@@ -2866,7 +3000,7 @@
         <v>1920</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="O15">
         <v>20</v>
@@ -2875,7 +3009,7 @@
         <v>0.3</v>
       </c>
       <c r="Q15">
-        <f>$P$12*P15</f>
+        <f t="shared" si="2"/>
         <v>22500</v>
       </c>
     </row>
@@ -2888,7 +3022,7 @@
         <v>2100</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="O16">
         <v>30</v>
@@ -2897,7 +3031,7 @@
         <v>0.5</v>
       </c>
       <c r="Q16">
-        <f>$P$12*P16</f>
+        <f t="shared" si="2"/>
         <v>37500</v>
       </c>
     </row>
@@ -2910,7 +3044,7 @@
         <v>2280</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2922,7 +3056,7 @@
         <v>2460</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2934,7 +3068,7 @@
         <v>2640</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2946,7 +3080,7 @@
         <v>2820</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2968,7 +3102,7 @@
         <v>22500</v>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2980,10 +3114,10 @@
         <v>3300</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2991,11 +3125,11 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B31" si="2">B22+$C$21</f>
+        <f t="shared" ref="B23:B31" si="3">B22+$C$21</f>
         <v>3600</v>
       </c>
       <c r="I23" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="N23">
         <f>75000-500</f>
@@ -3007,11 +3141,11 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3900</v>
       </c>
       <c r="I24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3019,11 +3153,11 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4200</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3031,11 +3165,11 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4500</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3043,11 +3177,11 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4800</v>
       </c>
       <c r="I27" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3055,11 +3189,11 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5100</v>
       </c>
       <c r="I28" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3067,11 +3201,11 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5400</v>
       </c>
       <c r="I29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3079,11 +3213,11 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5700</v>
       </c>
       <c r="I30" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3091,7 +3225,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="D31">
@@ -3102,22 +3236,22 @@
         <v>37500</v>
       </c>
       <c r="I31" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="9:9">
       <c r="I32" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -3126,132 +3260,132 @@
         <v>75900</v>
       </c>
       <c r="I35" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="9:9">
       <c r="I40" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="9:9">
       <c r="I41" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="9:9">
       <c r="I47" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="9:9">
       <c r="I48" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="9:9">
       <c r="I50" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="9:9">
       <c r="I51" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="9:9">
       <c r="I52" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="9:9">
       <c r="I53" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="9:9">
       <c r="I54" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="9:9">
       <c r="I55" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="9:9">
       <c r="I56" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="9:9">
       <c r="I58" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="9:9">
       <c r="I59" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="9:9">
       <c r="I60" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
